--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\CCPAutomation\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10820CF3-EF08-40EA-9F2D-3CB1D0D45304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D2C830-C274-4195-9AE0-1BBE9B6CD323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,7 +860,7 @@
     <t>Searchdatavalues</t>
   </si>
   <si>
-    <t>test</t>
+    <t>NCL_Gem_NYC_Jan 02 2023</t>
   </si>
 </sst>
 </file>
@@ -2329,16 +2329,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\CCPAutomation\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D2C830-C274-4195-9AE0-1BBE9B6CD323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103D299D-954A-4ADC-A63D-546F0D12E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1190" windowWidth="11390" windowHeight="7250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="273">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -845,19 +845,25 @@
     <t>quantity</t>
   </si>
   <si>
+    <t>NCL_Gem_NYC_Dec 22 2022</t>
+  </si>
+  <si>
+    <t>datavalue</t>
+  </si>
+  <si>
+    <t>offloads</t>
+  </si>
+  <si>
+    <t>Searchdatavalues</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
     <t>Yes (2)</t>
   </si>
   <si>
-    <t>NCL_Gem_NYC_Dec 22 2022</t>
-  </si>
-  <si>
-    <t>datavalue</t>
-  </si>
-  <si>
-    <t>offloads</t>
-  </si>
-  <si>
-    <t>Searchdatavalues</t>
+    <t>WAIT_CLICK</t>
   </si>
   <si>
     <t>NCL_Gem_NYC_Jan 02 2023</t>
@@ -1393,7 +1399,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2325,11 +2331,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -2345,7 +2351,7 @@
     <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>262</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>253</v>
@@ -2373,8 +2379,11 @@
       <c r="I1" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>260</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>258</v>
       </c>
@@ -2400,46 +2409,49 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="H7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>263</v>
       </c>
-      <c r="H8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>264</v>
       </c>
-      <c r="I9" t="s">
-        <v>2</v>
+      <c r="J9" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2502,7 @@
         <v>248</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
